--- a/img/demo.xlsx
+++ b/img/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8355" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>element_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>com.unovo.apartment.manager.dev:id/toolbar_titl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/toolbar_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +417,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>

--- a/img/demo.xlsx
+++ b/img/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9288" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,25 +14,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>element_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素名称(客户端+模块+功能页面+控件类型+字段名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Editbox_phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -40,15 +92,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Editbox_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>android.widget.EditText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class_names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_names</t>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,11 +144,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_ForgetPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/login_tvForget</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/tvRegister</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择运营商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择运营商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_SelectOperator_Button_SelectOperator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.unovo.apartment.manager.dev:id/toolbar_titl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.unovo.apartment.manager.dev:id/toolbar_title</t>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.ImageButton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,18 +238,56 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -108,8 +296,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,120 +621,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>1</v>
       </c>
+      <c r="K6" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/img/demo.xlsx
+++ b/img/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="10455" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.unovo.apartment.manager.dev:id/toolbar_titl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,10 @@
   </si>
   <si>
     <t>android.widget.ImageButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/toolbar_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,19 +624,19 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="48.75" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -706,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -776,7 +776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -864,7 +864,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>36</v>
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -893,13 +893,13 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>

--- a/img/demo.xlsx
+++ b/img/demo.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="11625" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" iterate="1" iterateCount="101"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="353">
   <si>
     <t>客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>定位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>元素名称(客户端+模块+功能页面+控件类型+字段名)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,11 +76,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调试是否通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联寓运营</t>
+    <t>白云生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_Button_login</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,11 +115,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_Editbox_phone</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/editMobile</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_Editbox_password</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/editPassword</t>
+  </si>
+  <si>
+    <t>白云生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_Button_login</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/loginButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入框</t>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_Button_ForgetPassword</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/loginFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_Button_Register</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_Button_close</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_loginprompt_Button_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/positive_bt</t>
+  </si>
+  <si>
+    <t>白云生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_identityverification _Editbox_IDnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_login_identityverification _Button_cancel</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/negative_bt</t>
+  </si>
+  <si>
+    <t>BYS_login_identityverification _Button_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Button_home</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/nav_item_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Button_rapidenrollment</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_quick_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,11 +322,514 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LYO_login_Editbox_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.widget.EditText</t>
+    <t>BYS_home_rapidenrollment_Editbox_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Button_next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/next</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Button_close</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_delete</t>
+  </si>
+  <si>
+    <t>白云生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Editbox_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/edit_pwd</t>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Button_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/login</t>
+  </si>
+  <si>
+    <t>上一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Button_back</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/mobile_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Button_close1</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_close</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Button_ForgetPassword</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_forget</t>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_Editbox_CAPTCHA</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/verify_code</t>
+  </si>
+  <si>
+    <t>没获取到验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_rapidenrollment_NogetCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_no_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_room_Button_room</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/nav_item_search</t>
+  </si>
+  <si>
+    <t>房源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ room_PropertyID_Button_ PropertyID</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_img</t>
+  </si>
+  <si>
+    <t>客房详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ particulars_Ordertable_Button_ Ordertable</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ particulars_Ordertable_Button_cancel</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btnCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ particulars_Ordertable_Button_moment</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btnNowSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ particulars_Ordertable_Button_ confirm</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btnSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ particulars_Ordertable_date_ time</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/week1</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早中晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ particulars_Ordertable_date_ Oneearly</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/week2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约成功提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_particulars_tis_Button_ return</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/negative_bt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看我的租约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_particulars_tis_Button_ Checkmylease</t>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_Button_my</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/nav_item_me</t>
+  </si>
+  <si>
+    <t>租约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_Button_ lease</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_rentDate</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_lease_Button_ return</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/ctv_bgatitlebar_left</t>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_lease_Button_ cancel</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_ope1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_lease_Button_ sign</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_ope2</t>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_lease_Button_ submit</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_lease_Button_ reservation</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_ope3</t>
+  </si>
+  <si>
+    <t>BYS_ lease_cancel_Button_ cancel</t>
+  </si>
+  <si>
+    <t>BYS_ lease_cancel_Button_ confirm</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/positive_bt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_Button_ bill</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_bill_check_ check</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_bill_check_ checkbox</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_bill_Button_ return</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ my_bill_Button_ payment</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ bill_pay_Button_ balance</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/rl_charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ bill_pay_Button_ return</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/ctv_bgatitlebar_left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_ bill_pay_Button_ confirm</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd1</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_keys</t>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd2</t>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd3</t>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd4</t>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd5</t>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd6</t>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd7</t>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd8</t>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_pay__Buttonx_pwd9</t>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_pwd_Button_ close</t>
+  </si>
+  <si>
+    <t>BYS_bill_pwd_Button_ forgetthepwd</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_forgetPwd</t>
+  </si>
+  <si>
+    <t>账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未支付提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍后支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_non-payment _Button_ Paylater</t>
+  </si>
+  <si>
+    <t>继续支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_non-payment _Button_ Continuetopay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_bill_non-payment _Button_ Temporarypassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.LinearLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,133 +837,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>智能设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Button_smartdevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_smartdevice_Button_return</t>
+  </si>
+  <si>
+    <t>白云生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_smartdevice_Button_Privateequipment</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/ItemImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Editbox_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.widget.EditText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联寓运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/btnLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联寓运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_ForgetPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/login_tvForget</t>
-  </si>
-  <si>
-    <t>by_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_Register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/tvRegister</t>
-  </si>
-  <si>
-    <t>by_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择运营商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择运营商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_SelectOperator_Button_SelectOperator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_Return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.widget.ImageButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/toolbar_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>洗衣房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_smartdevice_Button_devie</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_smartdevice_Button_use</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btn_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_smartdevice_Button_cancel</t>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_smartdevice_Button_confirm</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/positive_bt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Button_Certification</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_return</t>
+  </si>
+  <si>
+    <t>实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传证件照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_Uploadidphoto</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_other_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_commit</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/ctv_bgatitlebar_right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Editbox_name</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/et_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Editbox_IDNumber</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/et_cardnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BYS_home_Certification_Button_below </t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_cardtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件正面照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BYS_home_Certification_Button_photograph </t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_imgup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件反面照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_photographs</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_imgback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人面正脸照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_picture</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_Certification_type_Button_identitycard</t>
+  </si>
+  <si>
+    <t>android.widget.TextView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_Certification_type_Button_passport</t>
+  </si>
+  <si>
+    <t>android.widget.TextView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台胞证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_Certification_type_Button_compatriots</t>
+  </si>
+  <si>
+    <t>android.widget.TextView</t>
+  </si>
+  <si>
+    <t>回乡证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_Certification_type_Button_reentrypermit</t>
+  </si>
+  <si>
+    <t>BYS_Certification_type_Button_cancel</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/txt_cancel</t>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_photograph</t>
+  </si>
+  <si>
+    <t>从照片库中选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_photo</t>
+  </si>
+  <si>
+    <t>BYS_home_Certification_Button_cancel</t>
+  </si>
+  <si>
+    <t>门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_doorlock _Button_openthedoor</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/open_the_door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home_doorlock _Button_more</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_more_doorlock _Button_return</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/ctv_bgatitlebar_left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_more_doorlock _Button_openthedoor</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/txt_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BYS_more_doorlock _Button_allow </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:id/button1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BYS_more_doorlock _Button_r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efuse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:id/button2</t>
+  </si>
+  <si>
+    <t>BYS_more_doorlock _Button_temppwd</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/txt_temppwd</t>
+  </si>
+  <si>
+    <t>长效密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_more_doorlock _Button_fixpwd</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/txt_fixpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时密码开门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取临时密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_doorlock_openDoor _Button_gainpwd</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/btnOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_more_openDoor _Button_close</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/iv_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取长效密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_doorlock_openDoor _Button_glpwd</t>
+  </si>
+  <si>
+    <t>BYS_more_openDoor _Button_close1</t>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是业主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_Button_owner</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/ll_owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_owner_Button_return</t>
+  </si>
+  <si>
+    <t>android.widget.ImageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_owner_Button_owner</t>
+  </si>
+  <si>
+    <t>android.view.View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_my_owner_Button_door</t>
+  </si>
+  <si>
+    <t>BYS_owner_door_Button_opendoor</t>
+  </si>
+  <si>
+    <t>android.view.View</t>
+  </si>
+  <si>
+    <t>BYS_owner_door_Button_gainpwd</t>
+  </si>
+  <si>
+    <t>BYS_owner_door_Button_return</t>
+  </si>
+  <si>
+    <t>BYS_home _Button_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/tv_title</t>
+  </si>
+  <si>
+    <t>选择客房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.v2.dev:id/container</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +1337,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +1377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,24 +1433,716 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -621,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,48 +2474,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -708,63 +2529,63 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -773,33 +2594,33 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -813,28 +2634,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -842,32 +2663,34 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -876,33 +2699,33 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -910,10 +2733,3754 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="3">
+        <v>4</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I61" s="3">
+        <v>9</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" s="3">
+        <v>3</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I74" s="3">
+        <v>5</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I86" s="3">
+        <v>3</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I87" s="3">
+        <v>4</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2</v>
+      </c>
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1 F36:F39 F41:F45 F47:F51 F53:F94 F3:F34">
+    <cfRule type="duplicateValues" dxfId="67" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="duplicateValues" dxfId="65" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="duplicateValues" dxfId="63" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99">
+    <cfRule type="duplicateValues" dxfId="61" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
+    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101">
+    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102">
+    <cfRule type="duplicateValues" dxfId="55" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103">
+    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104">
+    <cfRule type="duplicateValues" dxfId="51" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
+    <cfRule type="duplicateValues" dxfId="49" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="duplicateValues" dxfId="47" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="duplicateValues" dxfId="45" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="duplicateValues" dxfId="43" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110">
+    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F110 F1 F36:F39 F41:F45 F47:F51 F53:F95 F3:F34">
+    <cfRule type="duplicateValues" dxfId="37" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/img/demo.xlsx
+++ b/img/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="534">
   <si>
     <t>客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1317,12 +1317,711 @@
   <si>
     <t>com.unovo.apartment.v2.dev:id/container</t>
   </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Editbox_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.EditText</t>
+  </si>
+  <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Editbox_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/btnLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/login_tvForget</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/tvRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择运营商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_SelectOperator_Button_Nameofoperator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_agenda_Updateprompt_Button_Aftertheupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:id/button2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_commissionButton_commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_manage_Button_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/manage</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_plus_plus_Button_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/plus</t>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_my_my_Button_my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/my</t>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_Button_filtrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.ImageButton</t>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_Button_news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/action_notification</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_fields_showings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/title</t>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_fields_tobeconfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/status</t>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_fields_tobeconfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_affirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LYO_commission_seetheapartment_Button_doorlock </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择租客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Chooseatenant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/rentguest_layout</t>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_ Staydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/signed_date_layout</t>
+  </si>
+  <si>
+    <t>租期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_lease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/tenancy_layout</t>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_datedue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/endtime_layout</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/paymodel_layout</t>
+  </si>
+  <si>
+    <t>付款周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Paymentterms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/pay_period_layout</t>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_putin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/submit</t>
+  </si>
+  <si>
+    <t>签约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Contracttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/sign_type_layout</t>
+  </si>
+  <si>
+    <t>滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择签约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Contracttypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/wheelview</t>
+  </si>
+  <si>
+    <t>签约-签约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/btn_OK</t>
+  </si>
+  <si>
+    <t>签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Contractphotos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/img</t>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_roomstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/item_manager_layout</t>
+  </si>
+  <si>
+    <t>客房统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Guestroomstatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LYO_roomstatus_seetheapartment_Button_recentnews </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_RENTNEWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_complaints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Guestroommonitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务结账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Accountinginvoicing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Thepublickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LYO_roomstatus_seetheapartment_Button_devicecontrol </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Checkoutsettlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_seetheapartment_Button_Checkthebill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待删钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_seetheapartment_Button_Todeletethekey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_seetheapartment_Button_eam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空房待租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_roomstatus_Button_Roomsavailableforrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.support.v7.app.ActionBar$Tab</t>
+  </si>
+  <si>
+    <t>选择客房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_roomstatus_Button_Chooseroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/item_layout</t>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_forgetpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/dialog_contents</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/txt_cfrim</t>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Textbox_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Button_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Title_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificationLater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍后认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_tvRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Title_authenticationTips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,8 +2059,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,6 +2089,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,351 +2169,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2442,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2453,8 +2838,9 @@
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="52.375" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="48.75" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -6377,109 +6763,2072 @@
         <v>30</v>
       </c>
     </row>
+    <row r="113" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I113" s="11">
+        <v>0</v>
+      </c>
+      <c r="J113" s="11">
+        <v>1</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I114" s="11">
+        <v>1</v>
+      </c>
+      <c r="J114" s="11">
+        <v>1</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
+        <v>1</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11">
+        <v>1</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0</v>
+      </c>
+      <c r="J117" s="11">
+        <v>1</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="11">
+        <v>0</v>
+      </c>
+      <c r="J118" s="11">
+        <v>1</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0</v>
+      </c>
+      <c r="J119" s="11">
+        <v>1</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="11">
+        <v>0</v>
+      </c>
+      <c r="J120" s="11">
+        <v>1</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I121" s="11">
+        <v>0</v>
+      </c>
+      <c r="J121" s="11">
+        <v>1</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I122" s="11">
+        <v>0</v>
+      </c>
+      <c r="J122" s="11">
+        <v>1</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0</v>
+      </c>
+      <c r="J123" s="11">
+        <v>1</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124" s="11">
+        <v>1</v>
+      </c>
+      <c r="J124" s="11">
+        <v>1</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125" s="11">
+        <v>2</v>
+      </c>
+      <c r="J125" s="11">
+        <v>1</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I126" s="11">
+        <v>4</v>
+      </c>
+      <c r="J126" s="11">
+        <v>1</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I130" s="11">
+        <v>0</v>
+      </c>
+      <c r="J130" s="11">
+        <v>1</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I131" s="11">
+        <v>0</v>
+      </c>
+      <c r="J131" s="11">
+        <v>1</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132" s="11">
+        <v>1</v>
+      </c>
+      <c r="J132" s="11">
+        <v>1</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I133" s="11">
+        <v>1</v>
+      </c>
+      <c r="J133" s="11">
+        <v>1</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I134" s="11">
+        <v>2</v>
+      </c>
+      <c r="J134" s="11">
+        <v>1</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I135" s="11">
+        <v>2</v>
+      </c>
+      <c r="J135" s="11">
+        <v>1</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I136" s="11">
+        <v>2</v>
+      </c>
+      <c r="J136" s="11">
+        <v>1</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I137" s="11">
+        <v>1</v>
+      </c>
+      <c r="J137" s="11">
+        <v>1</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I138" s="11">
+        <v>2</v>
+      </c>
+      <c r="J138" s="11">
+        <v>1</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I139" s="11">
+        <v>2</v>
+      </c>
+      <c r="J139" s="11">
+        <v>1</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I140" s="11">
+        <v>2</v>
+      </c>
+      <c r="J140" s="11">
+        <v>1</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I141" s="11">
+        <v>4</v>
+      </c>
+      <c r="J141" s="11">
+        <v>1</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I142" s="11">
+        <v>5</v>
+      </c>
+      <c r="J142" s="11">
+        <v>1</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I143" s="11">
+        <v>0</v>
+      </c>
+      <c r="J143" s="11">
+        <v>1</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I144" s="11">
+        <v>0</v>
+      </c>
+      <c r="J144" s="11">
+        <v>1</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I145" s="11">
+        <v>0</v>
+      </c>
+      <c r="J145" s="11">
+        <v>1</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I146" s="11">
+        <v>0</v>
+      </c>
+      <c r="J146" s="11">
+        <v>1</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I147" s="11">
+        <v>0</v>
+      </c>
+      <c r="J147" s="11">
+        <v>1</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I148" s="11">
+        <v>0</v>
+      </c>
+      <c r="J148" s="11">
+        <v>1</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I149" s="11">
+        <v>0</v>
+      </c>
+      <c r="J149" s="11">
+        <v>1</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I150" s="11">
+        <v>0</v>
+      </c>
+      <c r="J150" s="11">
+        <v>1</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="11">
+        <v>0</v>
+      </c>
+      <c r="J151" s="11">
+        <v>1</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I152" s="11">
+        <v>0</v>
+      </c>
+      <c r="J152" s="11">
+        <v>1</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I153" s="11">
+        <v>0</v>
+      </c>
+      <c r="J153" s="11">
+        <v>1</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I154" s="11">
+        <v>0</v>
+      </c>
+      <c r="J154" s="11">
+        <v>1</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I155" s="11">
+        <v>0</v>
+      </c>
+      <c r="J155" s="11">
+        <v>1</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156" s="11">
+        <v>1</v>
+      </c>
+      <c r="J156" s="11">
+        <v>1</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157" s="11">
+        <v>2</v>
+      </c>
+      <c r="J157" s="11">
+        <v>1</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I158" s="11">
+        <v>4</v>
+      </c>
+      <c r="J158" s="11">
+        <v>1</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159" s="11">
+        <v>5</v>
+      </c>
+      <c r="J159" s="11">
+        <v>1</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="I160" s="11">
+        <v>6</v>
+      </c>
+      <c r="J160" s="11">
+        <v>1</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I161" s="11">
+        <v>7</v>
+      </c>
+      <c r="J161" s="11">
+        <v>1</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I162" s="11">
+        <v>8</v>
+      </c>
+      <c r="J162" s="11">
+        <v>1</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I163" s="11">
+        <v>9</v>
+      </c>
+      <c r="J163" s="11">
+        <v>1</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I164" s="11">
+        <v>10</v>
+      </c>
+      <c r="J164" s="11">
+        <v>1</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I165" s="11">
+        <v>11</v>
+      </c>
+      <c r="J165" s="11">
+        <v>1</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I166" s="11">
+        <v>12</v>
+      </c>
+      <c r="J166" s="11">
+        <v>1</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I167" s="11">
+        <v>13</v>
+      </c>
+      <c r="J167" s="11">
+        <v>1</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I168" s="11">
+        <v>3</v>
+      </c>
+      <c r="J168" s="11">
+        <v>1</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169" s="11">
+        <v>4</v>
+      </c>
+      <c r="J169" s="11">
+        <v>1</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F36:F39 F41:F45 F47:F51 F53:F94 F3:F34">
-    <cfRule type="duplicateValues" dxfId="67" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="duplicateValues" dxfId="65" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="duplicateValues" dxfId="63" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="duplicateValues" dxfId="61" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="duplicateValues" dxfId="55" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104">
-    <cfRule type="duplicateValues" dxfId="51" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="duplicateValues" dxfId="49" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="duplicateValues" dxfId="47" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="duplicateValues" dxfId="45" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="43" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:F110 F1 F36:F39 F41:F45 F47:F51 F53:F95 F3:F34">
-    <cfRule type="duplicateValues" dxfId="37" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/img/demo.xlsx
+++ b/img/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="11628" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="531">
   <si>
     <t>客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1326,694 +1326,682 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>android.widget.EditText</t>
+  </si>
+  <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Editbox_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/btnLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/login_tvForget</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/tvRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择运营商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_SelectOperator_Button_Nameofoperator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_agenda_Updateprompt_Button_Aftertheupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:id/button2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_commissionButton_commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_manage_Button_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/manage</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_plus_plus_Button_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/plus</t>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_my_my_Button_my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/my</t>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_Button_filtrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.ImageButton</t>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_Button_news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/action_notification</t>
+  </si>
+  <si>
+    <t>by_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_fields_showings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/title</t>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_fields_tobeconfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/status</t>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_fields_tobeconfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_affirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联寓运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LYO_commission_seetheapartment_Button_doorlock </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择租客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Chooseatenant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/rentguest_layout</t>
+  </si>
+  <si>
+    <t>看房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_ Staydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/signed_date_layout</t>
+  </si>
+  <si>
+    <t>租期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_lease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/tenancy_layout</t>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_datedue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/endtime_layout</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/paymodel_layout</t>
+  </si>
+  <si>
+    <t>付款周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Paymentterms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/pay_period_layout</t>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_putin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/submit</t>
+  </si>
+  <si>
+    <t>签约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Contracttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/sign_type_layout</t>
+  </si>
+  <si>
+    <t>滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择签约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Contracttypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/wheelview</t>
+  </si>
+  <si>
+    <t>签约-签约类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/btn_OK</t>
+  </si>
+  <si>
+    <t>签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_Contractphotos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/img</t>
+  </si>
+  <si>
+    <t>LYO_commission_seetheapartment_Button_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_roomstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/item_manager_layout</t>
+  </si>
+  <si>
+    <t>客房统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Guestroomstatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LYO_roomstatus_seetheapartment_Button_recentnews </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_RENTNEWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_complaints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Guestroommonitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务结账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Accountinginvoicing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Thepublickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LYO_roomstatus_seetheapartment_Button_devicecontrol </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_roomstatus_seetheapartment_Button_Checkoutsettlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_seetheapartment_Button_Checkthebill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待删钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_seetheapartment_Button_Todeletethekey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_seetheapartment_Button_eam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空房待租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_roomstatus_Button_Roomsavailableforrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.support.v7.app.ActionBar$Tab</t>
+  </si>
+  <si>
+    <t>选择客房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_manage_roomstatus_Button_Chooseroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/item_layout</t>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_forgetpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/dialog_contents</t>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/txt_cfrim</t>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Textbox_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Button_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Popup_Title_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_tvRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启新版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYS_home _Button_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYO_login_Button_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unovo.apartment.manager.dev:id/guide_ib_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LYO_login_Editbox_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.widget.EditText</t>
-  </si>
-  <si>
-    <t>class_names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Editbox_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联寓运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/btnLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/login_tvForget</t>
-  </si>
-  <si>
-    <t>by_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/tvRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择运营商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_SelectOperator_Button_Nameofoperator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以后更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_agenda_Updateprompt_Button_Aftertheupdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android:id/button2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_commissionButton_commission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/commission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_manage_manage_Button_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/manage</t>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_plus_plus_Button_plus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/plus</t>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_my_my_Button_my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/my</t>
-  </si>
-  <si>
-    <t>by_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_Button_filtrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.widget.ImageButton</t>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_Button_news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/action_notification</t>
-  </si>
-  <si>
-    <t>by_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_fields_showings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/title</t>
-  </si>
-  <si>
-    <t>联寓运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_fields_tobeconfirmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/status</t>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_fields_tobeconfirmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看房中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_affirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联寓运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_accomplish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LYO_commission_seetheapartment_Button_doorlock </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择租客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_Chooseatenant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/rentguest_layout</t>
-  </si>
-  <si>
-    <t>看房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_ Staydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/signed_date_layout</t>
-  </si>
-  <si>
-    <t>租期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_lease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/tenancy_layout</t>
-  </si>
-  <si>
-    <t>到期日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_datedue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/endtime_layout</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_Payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/paymodel_layout</t>
-  </si>
-  <si>
-    <t>付款周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_Paymentterms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/pay_period_layout</t>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_putin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/submit</t>
-  </si>
-  <si>
-    <t>签约类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_Contracttype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/sign_type_layout</t>
-  </si>
-  <si>
-    <t>滑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择签约类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_Contracttypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/wheelview</t>
-  </si>
-  <si>
-    <t>签约-签约类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/btn_OK</t>
-  </si>
-  <si>
-    <t>签约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_Contractphotos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/img</t>
-  </si>
-  <si>
-    <t>LYO_commission_seetheapartment_Button_submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_roomstatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/item_manager_layout</t>
-  </si>
-  <si>
-    <t>客房统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_Guestroomstatistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LYO_roomstatus_seetheapartment_Button_recentnews </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租房动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_RENTNEWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投诉建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_complaints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客房监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_Guestroommonitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账务结账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_Accountinginvoicing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_Thepublickey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LYO_roomstatus_seetheapartment_Button_devicecontrol </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退房结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_roomstatus_seetheapartment_Button_Checkoutsettlement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_manage_seetheapartment_Button_Checkthebill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待删钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_manage_seetheapartment_Button_Todeletethekey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_manage_seetheapartment_Button_eam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空房待租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_manage_roomstatus_Button_Roomsavailableforrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.support.v7.app.ActionBar$Tab</t>
-  </si>
-  <si>
-    <t>选择客房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_manage_roomstatus_Button_Chooseroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/item_layout</t>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_forgetpwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/dialog_contents</t>
-  </si>
-  <si>
-    <t>com.unovo.apartment.manager.dev:id/txt_cfrim</t>
-  </si>
-  <si>
-    <t>LYO_login_Popup_Textbox_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Popup_Button_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Popup_Title_tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名认证提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>certificationLater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稍后认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Button_tvRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYO_login_Popup_Title_authenticationTips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,7 +2125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,19 +2142,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2176,27 +2152,35 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2827,23 +2811,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="48.75" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2846,7 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2878,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +2881,7 @@
       <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2913,7 +2897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2932,7 +2916,7 @@
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2948,7 +2932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2967,7 +2951,7 @@
       <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2983,7 +2967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3002,7 +2986,7 @@
       <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -3018,7 +3002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -3037,7 +3021,7 @@
       <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3053,7 +3037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3072,7 +3056,7 @@
       <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3088,7 +3072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3107,7 +3091,7 @@
       <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -3123,7 +3107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -3142,7 +3126,7 @@
       <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3158,7 +3142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -3177,7 +3161,7 @@
       <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -3193,7 +3177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3196,7 @@
       <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -3228,7 +3212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3247,7 +3231,7 @@
       <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3263,7 +3247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3282,7 +3266,7 @@
       <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -3298,7 +3282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
@@ -3317,7 +3301,7 @@
       <c r="F14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3333,7 +3317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
@@ -3352,7 +3336,7 @@
       <c r="F15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3368,7 +3352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -3387,7 +3371,7 @@
       <c r="F16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3403,7 +3387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -3422,7 +3406,7 @@
       <c r="F17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3438,7 +3422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>87</v>
       </c>
@@ -3457,7 +3441,7 @@
       <c r="F18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3473,7 +3457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3492,7 +3476,7 @@
       <c r="F19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3508,7 +3492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3527,7 +3511,7 @@
       <c r="F20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="11" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -3543,7 +3527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -3562,7 +3546,7 @@
       <c r="F21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="11" t="s">
         <v>97</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3578,7 +3562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -3597,7 +3581,7 @@
       <c r="F22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -3613,7 +3597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -3632,7 +3616,7 @@
       <c r="F23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="11" t="s">
         <v>103</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -3648,7 +3632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -3667,7 +3651,7 @@
       <c r="F24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3683,7 +3667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -3702,7 +3686,7 @@
       <c r="F25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="11" t="s">
         <v>109</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -3718,7 +3702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -3737,7 +3721,7 @@
       <c r="F26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="11" t="s">
         <v>112</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3753,7 +3737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -3772,7 +3756,7 @@
       <c r="F27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3788,7 +3772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -3807,7 +3791,7 @@
       <c r="F28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="11" t="s">
         <v>121</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3823,7 +3807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -3842,7 +3826,7 @@
       <c r="F29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="11" t="s">
         <v>124</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3858,7 +3842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -3877,7 +3861,7 @@
       <c r="F30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="11" t="s">
         <v>127</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3893,7 +3877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -3912,7 +3896,7 @@
       <c r="F31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3928,7 +3912,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -3947,7 +3931,7 @@
       <c r="F32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="11" t="s">
         <v>136</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3963,7 +3947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -3982,7 +3966,7 @@
       <c r="F33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="11" t="s">
         <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -3998,7 +3982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -4017,7 +4001,7 @@
       <c r="F34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -4033,7 +4017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -4052,7 +4036,7 @@
       <c r="F35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="12" t="s">
         <v>145</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -4068,7 +4052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -4087,7 +4071,7 @@
       <c r="F36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="11" t="s">
         <v>149</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -4103,7 +4087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -4122,7 +4106,7 @@
       <c r="F37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="11" t="s">
         <v>152</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -4138,7 +4122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -4157,7 +4141,7 @@
       <c r="F38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="11" t="s">
         <v>155</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -4173,7 +4157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -4192,7 +4176,7 @@
       <c r="F39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="11" t="s">
         <v>158</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -4208,7 +4192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -4227,7 +4211,7 @@
       <c r="F40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="11" t="s">
         <v>161</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -4243,7 +4227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -4262,7 +4246,7 @@
       <c r="F41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="11" t="s">
         <v>164</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -4278,7 +4262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -4297,7 +4281,7 @@
       <c r="F42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -4313,7 +4297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -4332,7 +4316,7 @@
       <c r="F43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="11" t="s">
         <v>167</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -4348,7 +4332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -4367,7 +4351,7 @@
       <c r="F44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="11" t="s">
         <v>171</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -4383,7 +4367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +4386,7 @@
       <c r="F45" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="11" t="s">
         <v>175</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -4418,7 +4402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -4437,7 +4421,7 @@
       <c r="F46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="11" t="s">
         <v>178</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -4453,7 +4437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
@@ -4472,7 +4456,7 @@
       <c r="F47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -4488,7 +4472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -4507,7 +4491,7 @@
       <c r="F48" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="11" t="s">
         <v>183</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -4523,7 +4507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -4542,7 +4526,7 @@
       <c r="F49" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="11" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -4558,7 +4542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -4577,7 +4561,7 @@
       <c r="F50" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="11" t="s">
         <v>190</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -4593,7 +4577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -4612,7 +4596,7 @@
       <c r="F51" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="11" t="s">
         <v>193</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -4628,7 +4612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
@@ -4647,7 +4631,7 @@
       <c r="F52" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4663,7 +4647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -4682,7 +4666,7 @@
       <c r="F53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -4698,7 +4682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -4717,7 +4701,7 @@
       <c r="F54" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4733,7 +4717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -4752,7 +4736,7 @@
       <c r="F55" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -4768,7 +4752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -4787,7 +4771,7 @@
       <c r="F56" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4803,7 +4787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>22</v>
       </c>
@@ -4822,7 +4806,7 @@
       <c r="F57" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -4838,7 +4822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -4857,7 +4841,7 @@
       <c r="F58" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4873,7 +4857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -4892,7 +4876,7 @@
       <c r="F59" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -4908,7 +4892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>77</v>
       </c>
@@ -4927,7 +4911,7 @@
       <c r="F60" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4943,7 +4927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -4962,7 +4946,7 @@
       <c r="F61" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -4978,7 +4962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -4997,7 +4981,7 @@
       <c r="F62" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="11" t="s">
         <v>97</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -5013,7 +4997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
@@ -5032,7 +5016,7 @@
       <c r="F63" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -5048,7 +5032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -5067,7 +5051,7 @@
       <c r="F64" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="11" t="s">
         <v>140</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -5083,7 +5067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -5102,7 +5086,7 @@
       <c r="F65" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="11" t="s">
         <v>167</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -5118,7 +5102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -5137,7 +5121,7 @@
       <c r="F66" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -5153,7 +5137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -5172,7 +5156,7 @@
       <c r="F67" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="11" t="s">
         <v>226</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -5188,7 +5172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -5207,7 +5191,7 @@
       <c r="F68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="11" t="s">
         <v>190</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -5223,7 +5207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>228</v>
       </c>
@@ -5242,7 +5226,7 @@
       <c r="F69" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -5258,7 +5242,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>228</v>
       </c>
@@ -5277,7 +5261,7 @@
       <c r="F70" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="12" t="s">
         <v>239</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -5293,7 +5277,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>228</v>
       </c>
@@ -5312,7 +5296,7 @@
       <c r="F71" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="11" t="s">
         <v>242</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -5328,7 +5312,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>228</v>
       </c>
@@ -5347,7 +5331,7 @@
       <c r="F72" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -5363,7 +5347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -5382,7 +5366,7 @@
       <c r="F73" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="11" t="s">
         <v>247</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -5398,7 +5382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -5417,7 +5401,7 @@
       <c r="F74" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -5433,7 +5417,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -5452,7 +5436,7 @@
       <c r="F75" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="11" t="s">
         <v>190</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -5468,7 +5452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>228</v>
       </c>
@@ -5487,7 +5471,7 @@
       <c r="F76" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="11" t="s">
         <v>256</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -5503,7 +5487,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -5522,7 +5506,7 @@
       <c r="F77" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="11" t="s">
         <v>258</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -5538,7 +5522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>228</v>
       </c>
@@ -5557,7 +5541,7 @@
       <c r="F78" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="11" t="s">
         <v>261</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5573,7 +5557,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>228</v>
       </c>
@@ -5592,7 +5576,7 @@
       <c r="F79" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="11" t="s">
         <v>264</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -5608,7 +5592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>228</v>
       </c>
@@ -5621,13 +5605,13 @@
       <c r="D80" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="6" t="s">
         <v>265</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="11" t="s">
         <v>267</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -5643,7 +5627,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>228</v>
       </c>
@@ -5656,13 +5640,13 @@
       <c r="D81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="6" t="s">
         <v>268</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="11" t="s">
         <v>270</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -5678,7 +5662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>228</v>
       </c>
@@ -5691,13 +5675,13 @@
       <c r="D82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="6" t="s">
         <v>271</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="11" t="s">
         <v>273</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5713,7 +5697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -5726,13 +5710,13 @@
       <c r="D83" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="6" t="s">
         <v>274</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="11" t="s">
         <v>276</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -5748,7 +5732,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -5761,13 +5745,13 @@
       <c r="D84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="6" t="s">
         <v>278</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="11" t="s">
         <v>280</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -5783,7 +5767,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>228</v>
       </c>
@@ -5796,13 +5780,13 @@
       <c r="D85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="6" t="s">
         <v>282</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="11" t="s">
         <v>284</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -5818,7 +5802,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>228</v>
       </c>
@@ -5831,13 +5815,13 @@
       <c r="D86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="6" t="s">
         <v>287</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="11" t="s">
         <v>289</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -5853,7 +5837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -5866,13 +5850,13 @@
       <c r="D87" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="6" t="s">
         <v>290</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="11" t="s">
         <v>289</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -5888,7 +5872,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -5901,13 +5885,13 @@
       <c r="D88" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="11" t="s">
         <v>293</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -5923,7 +5907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>228</v>
       </c>
@@ -5936,13 +5920,13 @@
       <c r="D89" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="6" t="s">
         <v>294</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="11" t="s">
         <v>280</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -5958,7 +5942,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -5971,13 +5955,13 @@
       <c r="D90" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="6" t="s">
         <v>296</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="11" t="s">
         <v>289</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -5993,7 +5977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -6006,13 +5990,13 @@
       <c r="D91" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="11" t="s">
         <v>293</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -6028,7 +6012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -6041,13 +6025,13 @@
       <c r="D92" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="6" t="s">
         <v>300</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="11" t="s">
         <v>302</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -6063,7 +6047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>228</v>
       </c>
@@ -6076,13 +6060,13 @@
       <c r="D93" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="6" t="s">
         <v>303</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="11" t="s">
         <v>305</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -6098,11 +6082,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -6111,13 +6095,13 @@
       <c r="D94" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="11" t="s">
         <v>308</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -6133,11 +6117,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -6146,13 +6130,13 @@
       <c r="D95" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="6" t="s">
         <v>300</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="11" t="s">
         <v>310</v>
       </c>
       <c r="H95" s="3" t="s">
@@ -6168,11 +6152,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -6181,13 +6165,13 @@
       <c r="D96" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="6" t="s">
         <v>312</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="13" t="s">
         <v>314</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -6203,11 +6187,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -6216,13 +6200,13 @@
       <c r="D97" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="13" t="s">
         <v>318</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -6238,11 +6222,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -6251,13 +6235,13 @@
       <c r="D98" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="6" t="s">
         <v>220</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="11" t="s">
         <v>320</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -6273,11 +6257,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -6286,13 +6270,13 @@
       <c r="D99" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="6" t="s">
         <v>321</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="14" t="s">
         <v>323</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -6308,11 +6292,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
         <v>315</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -6321,13 +6305,13 @@
       <c r="D100" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="6" t="s">
         <v>325</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="14" t="s">
         <v>327</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -6343,11 +6327,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="6" t="s">
         <v>306</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -6356,13 +6340,13 @@
       <c r="D101" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="14" t="s">
         <v>329</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -6378,11 +6362,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="6" t="s">
         <v>306</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -6391,13 +6375,13 @@
       <c r="D102" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="6" t="s">
         <v>330</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="14" t="s">
         <v>327</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -6413,11 +6397,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="6" t="s">
         <v>306</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -6426,13 +6410,13 @@
       <c r="D103" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="14" t="s">
         <v>97</v>
       </c>
       <c r="H103" s="3" t="s">
@@ -6448,11 +6432,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="6" t="s">
         <v>333</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -6461,13 +6445,13 @@
       <c r="D104" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="6" t="s">
         <v>334</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="14" t="s">
         <v>336</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -6483,11 +6467,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -6496,13 +6480,13 @@
       <c r="D105" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="14" t="s">
         <v>338</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -6518,11 +6502,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -6531,13 +6515,13 @@
       <c r="D106" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="6" t="s">
         <v>340</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="14" t="s">
         <v>342</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -6553,11 +6537,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -6566,13 +6550,13 @@
       <c r="D107" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="6" t="s">
         <v>343</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="14" t="s">
         <v>342</v>
       </c>
       <c r="H107" s="3" t="s">
@@ -6588,11 +6572,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -6601,13 +6585,13 @@
       <c r="D108" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="6" t="s">
         <v>300</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="14" t="s">
         <v>346</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -6623,11 +6607,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -6636,13 +6620,13 @@
       <c r="D109" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="6" t="s">
         <v>220</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="14" t="s">
         <v>346</v>
       </c>
       <c r="H109" s="3" t="s">
@@ -6658,11 +6642,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -6671,13 +6655,13 @@
       <c r="D110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="14" t="s">
         <v>346</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -6693,7 +6677,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>56</v>
       </c>
@@ -6706,13 +6690,13 @@
       <c r="D111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="6" t="s">
         <v>340</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" s="11" t="s">
         <v>350</v>
       </c>
       <c r="H111" s="3" t="s">
@@ -6728,7 +6712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>56</v>
       </c>
@@ -6741,13 +6725,13 @@
       <c r="D112" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="6" t="s">
         <v>351</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G112" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>352</v>
       </c>
       <c r="H112" s="3" t="s">
@@ -6763,2072 +6747,2031 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="11" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B113" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>355</v>
+      <c r="C113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>528</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>356</v>
+        <v>529</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I113" s="11">
-        <v>0</v>
-      </c>
-      <c r="J113" s="11">
+        <v>20</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
         <v>1</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G114" s="11" t="s">
+      <c r="D114" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I114" s="11">
-        <v>1</v>
-      </c>
-      <c r="J114" s="11">
+      <c r="I114" s="7">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7">
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B115" s="11" t="s">
+    <row r="115" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E115" s="11" t="s">
+      <c r="C115" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F115" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" s="11">
-        <v>0</v>
-      </c>
-      <c r="J115" s="11">
+      <c r="D115" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I115" s="7">
+        <v>1</v>
+      </c>
+      <c r="J115" s="7">
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="11" t="s">
+    <row r="116" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="E116" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I116" s="11">
-        <v>0</v>
-      </c>
-      <c r="J116" s="11">
+      <c r="F116" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="7">
         <v>1</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B117" s="11" t="s">
+    <row r="117" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D117" s="11" t="s">
+      <c r="C117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117" s="11">
-        <v>0</v>
-      </c>
-      <c r="J117" s="11">
+      <c r="E117" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
         <v>1</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B118" s="11" t="s">
+    <row r="118" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="H118" s="11" t="s">
+      <c r="G118" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I118" s="11">
-        <v>0</v>
-      </c>
-      <c r="J118" s="11">
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7">
         <v>1</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B119" s="11" t="s">
+    <row r="119" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D119" s="11" t="s">
+      <c r="C119" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F119" s="12" t="s">
-        <v>522</v>
+      <c r="F119" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="H119" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="H119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="11">
-        <v>0</v>
-      </c>
-      <c r="J119" s="11">
+      <c r="I119" s="7">
+        <v>0</v>
+      </c>
+      <c r="J119" s="7">
         <v>1</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B120" s="11" t="s">
+    <row r="120" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>523</v>
+      <c r="C120" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>521</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="H120" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-      <c r="J120" s="11">
+      <c r="I120" s="7">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7">
         <v>1</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B121" s="11" t="s">
+    <row r="121" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="I121" s="11">
-        <v>0</v>
-      </c>
-      <c r="J121" s="11">
+      <c r="C121" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7">
         <v>1</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="11" t="s">
+    <row r="122" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I122" s="11">
-        <v>0</v>
-      </c>
-      <c r="J122" s="11">
+      <c r="B122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I122" s="7">
+        <v>0</v>
+      </c>
+      <c r="J122" s="7">
         <v>1</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B123" s="11" t="s">
+    <row r="123" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I123" s="11">
-        <v>0</v>
-      </c>
-      <c r="J123" s="11">
+      <c r="D123" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0</v>
+      </c>
+      <c r="J123" s="7">
         <v>1</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I124" s="11">
-        <v>1</v>
-      </c>
-      <c r="J124" s="11">
+    <row r="124" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I124" s="7">
+        <v>0</v>
+      </c>
+      <c r="J124" s="7">
         <v>1</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="H125" s="11" t="s">
+    <row r="125" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H125" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I125" s="11">
-        <v>2</v>
-      </c>
-      <c r="J125" s="11">
+      <c r="I125" s="7">
+        <v>1</v>
+      </c>
+      <c r="J125" s="7">
         <v>1</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="11" t="s">
+    <row r="126" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="11" t="s">
+      <c r="B126" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I126" s="11">
-        <v>4</v>
-      </c>
-      <c r="J126" s="11">
+      <c r="E126" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I126" s="7">
+        <v>2</v>
+      </c>
+      <c r="J126" s="7">
         <v>1</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="11" t="s">
+    <row r="127" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="11" t="s">
+      <c r="B127" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I127" s="7">
+        <v>4</v>
+      </c>
+      <c r="J127" s="7">
+        <v>1</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="11" t="s">
+      <c r="B128" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I128" s="7">
+        <v>0</v>
+      </c>
+      <c r="J128" s="7">
+        <v>1</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="H130" s="11" t="s">
+      <c r="B129" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="I130" s="11">
-        <v>0</v>
-      </c>
-      <c r="J130" s="11">
+      <c r="C129" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
+      <c r="J129" s="7">
+        <v>1</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130" s="7">
+        <v>1</v>
+      </c>
+      <c r="J130" s="7">
         <v>1</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I131" s="11">
-        <v>0</v>
-      </c>
-      <c r="J131" s="11">
+    <row r="131" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131" s="7">
+        <v>1</v>
+      </c>
+      <c r="J131" s="7">
         <v>1</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="G132" s="11" t="s">
+    <row r="132" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H132" s="11" t="s">
+      <c r="B132" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H132" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I132" s="11">
-        <v>1</v>
-      </c>
-      <c r="J132" s="11">
+      <c r="I132" s="7">
+        <v>2</v>
+      </c>
+      <c r="J132" s="7">
         <v>1</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E133" s="11" t="s">
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F133" s="12" t="s">
+      <c r="G133" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G133" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I133" s="11">
-        <v>1</v>
-      </c>
-      <c r="J133" s="11">
+      <c r="H133" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I133" s="7">
+        <v>2</v>
+      </c>
+      <c r="J133" s="7">
         <v>1</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B134" s="11" t="s">
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I134" s="11">
+      <c r="E134" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I134" s="7">
         <v>2</v>
       </c>
-      <c r="J134" s="11">
+      <c r="J134" s="7">
         <v>1</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="H135" s="11" t="s">
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="I135" s="11">
-        <v>2</v>
-      </c>
-      <c r="J135" s="11">
+      <c r="C135" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I135" s="7">
+        <v>1</v>
+      </c>
+      <c r="J135" s="7">
         <v>1</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="G136" s="11" t="s">
+    <row r="136" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="I136" s="11">
+      <c r="H136" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I136" s="7">
         <v>2</v>
       </c>
-      <c r="J136" s="11">
+      <c r="J136" s="7">
         <v>1</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="I137" s="11">
-        <v>1</v>
-      </c>
-      <c r="J137" s="11">
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I137" s="7">
+        <v>2</v>
+      </c>
+      <c r="J137" s="7">
         <v>1</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="G138" s="11" t="s">
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I138" s="11">
+      <c r="H138" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I138" s="7">
         <v>2</v>
       </c>
-      <c r="J138" s="11">
+      <c r="J138" s="7">
         <v>1</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D139" s="11" t="s">
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="G139" s="11" t="s">
+      <c r="E139" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H139" s="11" t="s">
+      <c r="H139" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I139" s="11">
-        <v>2</v>
-      </c>
-      <c r="J139" s="11">
+      <c r="I139" s="7">
+        <v>4</v>
+      </c>
+      <c r="J139" s="7">
         <v>1</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="G140" s="11" t="s">
+    <row r="140" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H140" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="I140" s="11">
-        <v>2</v>
-      </c>
-      <c r="J140" s="11">
+      <c r="H140" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I140" s="7">
+        <v>5</v>
+      </c>
+      <c r="J140" s="7">
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I141" s="11">
-        <v>4</v>
-      </c>
-      <c r="J141" s="11">
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="7">
         <v>1</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D142" s="11" t="s">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I142" s="11">
-        <v>5</v>
-      </c>
-      <c r="J142" s="11">
+      <c r="E142" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="7">
         <v>1</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I143" s="11">
-        <v>0</v>
-      </c>
-      <c r="J143" s="11">
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7">
         <v>1</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I144" s="11">
-        <v>0</v>
-      </c>
-      <c r="J144" s="11">
+    <row r="144" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0</v>
+      </c>
+      <c r="J144" s="7">
         <v>1</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I145" s="11">
-        <v>0</v>
-      </c>
-      <c r="J145" s="11">
+    <row r="145" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I145" s="7">
+        <v>0</v>
+      </c>
+      <c r="J145" s="7">
         <v>1</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I146" s="11">
-        <v>0</v>
-      </c>
-      <c r="J146" s="11">
+    <row r="146" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I146" s="7">
+        <v>0</v>
+      </c>
+      <c r="J146" s="7">
         <v>1</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I147" s="11">
-        <v>0</v>
-      </c>
-      <c r="J147" s="11">
+    <row r="147" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I147" s="7">
+        <v>0</v>
+      </c>
+      <c r="J147" s="7">
         <v>1</v>
       </c>
       <c r="K147" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I148" s="11">
-        <v>0</v>
-      </c>
-      <c r="J148" s="11">
+    <row r="148" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I148" s="7">
+        <v>0</v>
+      </c>
+      <c r="J148" s="7">
         <v>1</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I149" s="11">
-        <v>0</v>
-      </c>
-      <c r="J149" s="11">
+    <row r="149" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="7">
+        <v>0</v>
+      </c>
+      <c r="J149" s="7">
         <v>1</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I150" s="11">
-        <v>0</v>
-      </c>
-      <c r="J150" s="11">
+    <row r="150" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0</v>
+      </c>
+      <c r="J150" s="7">
         <v>1</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I151" s="11">
-        <v>0</v>
-      </c>
-      <c r="J151" s="11">
+    <row r="151" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="7">
         <v>1</v>
       </c>
       <c r="K151" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I152" s="11">
-        <v>0</v>
-      </c>
-      <c r="J152" s="11">
+    <row r="152" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0</v>
+      </c>
+      <c r="J152" s="7">
         <v>1</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="I153" s="11">
-        <v>0</v>
-      </c>
-      <c r="J153" s="11">
+    <row r="153" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0</v>
+      </c>
+      <c r="J153" s="7">
         <v>1</v>
       </c>
       <c r="K153" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F154" s="12" t="s">
+    <row r="154" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G154" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I154" s="11">
-        <v>0</v>
-      </c>
-      <c r="J154" s="11">
+      <c r="C154" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154" s="7">
+        <v>1</v>
+      </c>
+      <c r="J154" s="7">
         <v>1</v>
       </c>
       <c r="K154" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="F155" s="12" t="s">
+    <row r="155" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G155" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="G155" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H155" s="11" t="s">
+      <c r="H155" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I155" s="11">
-        <v>0</v>
-      </c>
-      <c r="J155" s="11">
+      <c r="I155" s="7">
+        <v>2</v>
+      </c>
+      <c r="J155" s="7">
         <v>1</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I156" s="11">
-        <v>1</v>
-      </c>
-      <c r="J156" s="11">
+    <row r="156" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I156" s="7">
+        <v>4</v>
+      </c>
+      <c r="J156" s="7">
         <v>1</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H157" s="11" t="s">
+    <row r="157" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H157" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I157" s="11">
-        <v>2</v>
-      </c>
-      <c r="J157" s="11">
+      <c r="I157" s="7">
+        <v>5</v>
+      </c>
+      <c r="J157" s="7">
         <v>1</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="I158" s="11">
-        <v>4</v>
-      </c>
-      <c r="J158" s="11">
+    <row r="158" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="I158" s="7">
+        <v>6</v>
+      </c>
+      <c r="J158" s="7">
         <v>1</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I159" s="11">
-        <v>5</v>
-      </c>
-      <c r="J159" s="11">
+      <c r="B159" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I159" s="7">
+        <v>7</v>
+      </c>
+      <c r="J159" s="7">
         <v>1</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C160" s="11" t="s">
+    <row r="160" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I160" s="11">
-        <v>6</v>
-      </c>
-      <c r="J160" s="11">
+      <c r="E160" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I160" s="7">
+        <v>8</v>
+      </c>
+      <c r="J160" s="7">
         <v>1</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F161" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I161" s="11">
-        <v>7</v>
-      </c>
-      <c r="J161" s="11">
+    <row r="161" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I161" s="7">
+        <v>9</v>
+      </c>
+      <c r="J161" s="7">
         <v>1</v>
       </c>
       <c r="K161" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D162" s="11" t="s">
+    <row r="162" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I162" s="11">
-        <v>8</v>
-      </c>
-      <c r="J162" s="11">
+      <c r="E162" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I162" s="7">
+        <v>10</v>
+      </c>
+      <c r="J162" s="7">
         <v>1</v>
       </c>
       <c r="K162" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="I163" s="11">
-        <v>9</v>
-      </c>
-      <c r="J163" s="11">
+    <row r="163" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I163" s="7">
+        <v>11</v>
+      </c>
+      <c r="J163" s="7">
         <v>1</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="F164" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I164" s="11">
-        <v>10</v>
-      </c>
-      <c r="J164" s="11">
+    <row r="164" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I164" s="7">
+        <v>12</v>
+      </c>
+      <c r="J164" s="7">
         <v>1</v>
       </c>
       <c r="K164" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D165" s="11" t="s">
+    <row r="165" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D165" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I165" s="11">
-        <v>11</v>
-      </c>
-      <c r="J165" s="11">
+      <c r="E165" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I165" s="7">
+        <v>13</v>
+      </c>
+      <c r="J165" s="7">
         <v>1</v>
       </c>
       <c r="K165" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I166" s="11">
-        <v>12</v>
-      </c>
-      <c r="J166" s="11">
+    <row r="166" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I166" s="7">
+        <v>3</v>
+      </c>
+      <c r="J166" s="7">
         <v>1</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H167" s="11" t="s">
+    <row r="167" spans="1:11" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="H167" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I167" s="11">
-        <v>13</v>
-      </c>
-      <c r="J167" s="11">
+      <c r="I167" s="7">
+        <v>4</v>
+      </c>
+      <c r="J167" s="7">
         <v>1</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="I168" s="11">
-        <v>3</v>
-      </c>
-      <c r="J168" s="11">
-        <v>1</v>
-      </c>
-      <c r="K168" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="F169" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I169" s="11">
-        <v>4</v>
-      </c>
-      <c r="J169" s="11">
-        <v>1</v>
-      </c>
-      <c r="K169" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F36:F39 F41:F45 F47:F51 F53:F94 F3:F34">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:F110 F1 F36:F39 F41:F45 F47:F51 F53:F95 F3:F34">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
